--- a/media/Stock Data.xlsx
+++ b/media/Stock Data.xlsx
@@ -38,301 +38,301 @@
     <t>ULTRACEMCO.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AULTRACEMCO</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AULTRACEMCO</t>
   </si>
   <si>
     <t>SHRIRAMFIN.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ASHRIRAMFIN</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ASHRIRAMFIN</t>
   </si>
   <si>
     <t>M&amp;M.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AM&amp;M</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AM&amp;M</t>
   </si>
   <si>
     <t>TITAN.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATITAN</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATITAN</t>
   </si>
   <si>
     <t>GRASIM.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AGRASIM</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AGRASIM</t>
   </si>
   <si>
     <t>ADANIPORTS.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AADANIPORTS</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AADANIPORTS</t>
   </si>
   <si>
     <t>SBIN.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ASBIN</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ASBIN</t>
   </si>
   <si>
     <t>BEL.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABEL</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABEL</t>
   </si>
   <si>
     <t>POWERGRID.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3APOWERGRID</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3APOWERGRID</t>
   </si>
   <si>
     <t>APOLLOHOSP.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AAPOLLOHOSP</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AAPOLLOHOSP</t>
   </si>
   <si>
     <t>HDFCBANK.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHDFCBANK</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHDFCBANK</t>
   </si>
   <si>
     <t>NTPC.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ANTPC</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ANTPC</t>
   </si>
   <si>
     <t>CIPLA.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ACIPLA</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ACIPLA</t>
   </si>
   <si>
     <t>COALINDIA.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ACOALINDIA</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ACOALINDIA</t>
   </si>
   <si>
     <t>BAJFINANCE.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABAJFINANCE</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABAJFINANCE</t>
   </si>
   <si>
     <t>AXISBANK.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AAXISBANK</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AAXISBANK</t>
   </si>
   <si>
     <t>SUNPHARMA.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ASUNPHARMA</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ASUNPHARMA</t>
   </si>
   <si>
     <t>INDUSINDBK.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AINDUSINDBK</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AINDUSINDBK</t>
   </si>
   <si>
     <t>TATAMOTORS.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATATAMOTORS</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATATAMOTORS</t>
   </si>
   <si>
     <t>BAJAJFINSV.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABAJAJFINSV</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABAJAJFINSV</t>
   </si>
   <si>
     <t>ICICIBANK.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AICICIBANK</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AICICIBANK</t>
   </si>
   <si>
     <t>JSWSTEEL.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AJSWSTEEL</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AJSWSTEEL</t>
   </si>
   <si>
     <t>TATASTEEL.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATATASTEEL</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATATASTEEL</t>
   </si>
   <si>
     <t>TRENT.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATRENT</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATRENT</t>
   </si>
   <si>
     <t>WIPRO.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AWIPRO</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AWIPRO</t>
   </si>
   <si>
     <t>RELIANCE.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ARELIANCE</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ARELIANCE</t>
   </si>
   <si>
     <t>TECHM.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATECHM</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATECHM</t>
   </si>
   <si>
     <t>KOTAKBANK.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AKOTAKBANK</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AKOTAKBANK</t>
   </si>
   <si>
     <t>LT.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ALT</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ALT</t>
   </si>
   <si>
     <t>HCLTECH.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHCLTECH</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHCLTECH</t>
   </si>
   <si>
     <t>EICHERMOT.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AEICHERMOT</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AEICHERMOT</t>
   </si>
   <si>
     <t>BHARTIARTL.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABHARTIARTL</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABHARTIARTL</t>
   </si>
   <si>
     <t>ADANIENT.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AADANIENT</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AADANIENT</t>
   </si>
   <si>
     <t>DRREDDY.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ADRREDDY</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ADRREDDY</t>
   </si>
   <si>
     <t>TCS.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATCS</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATCS</t>
   </si>
   <si>
     <t>ONGC.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AONGC</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AONGC</t>
   </si>
   <si>
     <t>ASIANPAINT.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AASIANPAINT</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AASIANPAINT</t>
   </si>
   <si>
     <t>INFY.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AINFY</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AINFY</t>
   </si>
   <si>
     <t>HEROMOTOCO.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHEROMOTOCO</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHEROMOTOCO</t>
   </si>
   <si>
     <t>BPCL.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABPCL</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABPCL</t>
   </si>
   <si>
     <t>HDFCLIFE.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHDFCLIFE</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHDFCLIFE</t>
   </si>
   <si>
     <t>MARUTI.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AMARUTI</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AMARUTI</t>
   </si>
   <si>
     <t>TATACONSUM.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ATATACONSUM</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ATATACONSUM</t>
   </si>
   <si>
     <t>ITC.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AITC</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AITC</t>
   </si>
   <si>
     <t>BRITANNIA.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABRITANNIA</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABRITANNIA</t>
   </si>
   <si>
     <t>BAJAJ-AUTO.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ABAJAJ-AUTO</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ABAJAJ-AUTO</t>
   </si>
   <si>
     <t>NESTLEIND.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ANESTLEIND</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ANESTLEIND</t>
   </si>
   <si>
     <t>HINDALCO.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHINDALCO</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHINDALCO</t>
   </si>
   <si>
     <t>SBILIFE.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ASBILIFE</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3ASBILIFE</t>
   </si>
   <si>
     <t>HINDUNILVR.NS</t>
   </si>
   <si>
-    <t>https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AHINDUNILVR</t>
+    <t>https://in.tradingview.com/chart/?symbol=NSE%3AHINDUNILVR</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E$1:E$1048576"/>
+      <selection activeCell="B2" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1340,7 +1340,6 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:4">
@@ -1350,7 +1349,6 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:4">
@@ -1360,7 +1358,6 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:4">
@@ -1370,7 +1367,6 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:4">
@@ -1380,7 +1376,6 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:4">
@@ -1390,7 +1385,6 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:4">
@@ -1400,7 +1394,6 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:4">
@@ -1410,7 +1403,6 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:4">
@@ -1420,7 +1412,6 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:4">
@@ -1430,7 +1421,6 @@
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:4">
@@ -1440,7 +1430,6 @@
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:4">
@@ -1450,7 +1439,6 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:4">
@@ -1460,7 +1448,6 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" ht="19.5" customHeight="1" spans="1:4">
@@ -1470,7 +1457,6 @@
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:4">
@@ -1480,7 +1466,6 @@
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" ht="19.5" customHeight="1" spans="1:4">
@@ -1490,7 +1475,6 @@
       <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" ht="19.5" customHeight="1" spans="1:4">
@@ -1500,7 +1484,6 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" ht="19.5" customHeight="1" spans="1:4">
@@ -1510,7 +1493,6 @@
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:4">
@@ -1520,7 +1502,6 @@
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" ht="19.5" customHeight="1" spans="1:4">
@@ -1530,7 +1511,6 @@
       <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" ht="19.5" customHeight="1" spans="1:4">
@@ -1540,7 +1520,6 @@
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" ht="19.5" customHeight="1" spans="1:4">
@@ -1550,7 +1529,6 @@
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" ht="19.5" customHeight="1" spans="1:4">
@@ -1560,7 +1538,6 @@
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" ht="19.5" customHeight="1" spans="1:4">
@@ -1570,7 +1547,6 @@
       <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:4">
@@ -1580,7 +1556,6 @@
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:4">
@@ -1590,7 +1565,6 @@
       <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:4">
@@ -1600,7 +1574,6 @@
       <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:4">
@@ -1610,7 +1583,6 @@
       <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:4">
@@ -1620,7 +1592,6 @@
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:4">
@@ -1630,7 +1601,6 @@
       <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:4">
@@ -1640,7 +1610,6 @@
       <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:4">
@@ -1650,7 +1619,6 @@
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:4">
@@ -1660,7 +1628,6 @@
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:4">
@@ -1670,7 +1637,6 @@
       <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:4">
@@ -1680,7 +1646,6 @@
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:4">
@@ -1690,7 +1655,6 @@
       <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C37"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:4">
@@ -1700,7 +1664,6 @@
       <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:4">
@@ -1710,7 +1673,6 @@
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:4">
@@ -1720,7 +1682,6 @@
       <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C40"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:4">
@@ -1730,7 +1691,6 @@
       <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C41"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:4">
@@ -1740,7 +1700,6 @@
       <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C42"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:4">
@@ -1750,7 +1709,6 @@
       <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C43"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:4">
@@ -1760,7 +1718,6 @@
       <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C44"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" ht="18.75" customHeight="1" spans="1:4">
@@ -1770,7 +1727,6 @@
       <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C45"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" ht="18.75" customHeight="1" spans="1:4">
@@ -1780,7 +1736,6 @@
       <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C46"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" ht="18.75" customHeight="1" spans="1:4">
@@ -1790,7 +1745,6 @@
       <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C47"/>
       <c r="D47" s="1"/>
     </row>
     <row r="48" ht="18.75" customHeight="1" spans="1:4">
@@ -1800,7 +1754,6 @@
       <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C48"/>
       <c r="D48" s="1"/>
     </row>
     <row r="49" ht="18.75" customHeight="1" spans="1:4">
@@ -1810,7 +1763,6 @@
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C49"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" ht="18.75" customHeight="1" spans="1:4">
@@ -1820,7 +1772,6 @@
       <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C50"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="1:4">
@@ -1830,13 +1781,12 @@
       <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C51"/>
       <c r="D51" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3ASHRIRAMFIN"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://in.tradingview.com/chart/E8z9Sqxm/?symbol=NSE%3AULTRACEMCO"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://in.tradingview.com/chart/?symbol=NSE%3ASHRIRAMFIN"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://in.tradingview.com/chart/?symbol=NSE%3AULTRACEMCO"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
